--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota/Desktop/pydend_project/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D82D420-4283-FB40-A6E5-765891E51CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D32225-E7BB-CA45-9F71-95CB5A9269D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20300" activeTab="2" xr2:uid="{F349915E-6230-CF4E-9E53-9946FA4ED6EA}"/>
+    <workbookView xWindow="-32000" yWindow="-300" windowWidth="32000" windowHeight="17540" activeTab="3" xr2:uid="{F349915E-6230-CF4E-9E53-9946FA4ED6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
     <sheet name="condition" sheetId="2" r:id="rId2"/>
-    <sheet name="export" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="export" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -517,7 +518,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -639,7 +640,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -701,7 +702,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -717,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -727,11 +728,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31966A-9137-E545-AF70-E19184103B49}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096283FB-3684-5648-92F7-DE394838B14B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -752,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
